--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1383964.065891302</v>
+        <v>-1386523.336458858</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>12.87997513611168</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11.94137232658055</v>
+        <v>43.29451177962352</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>110.2029851842622</v>
       </c>
       <c r="T2" t="n">
         <v>204.1129955007334</v>
@@ -716,7 +716,7 @@
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349997</v>
+        <v>89.82709352349995</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736371</v>
+        <v>9.512185486736328</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104679</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.8307234716369</v>
+        <v>89.83072347163687</v>
       </c>
       <c r="S4" t="n">
         <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>209.8981829678002</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.43263503796974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>291.1225850805483</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>38.54479897546834</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>186.7884146213094</v>
+        <v>171.290008215027</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>378.8017771651961</v>
       </c>
       <c r="H8" t="n">
-        <v>172.8228546749718</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>164.2540732785633</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.8337788720253</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>43.73846614325516</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.3542165280286</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>93.62264337260675</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>20.22544352992838</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>59.44001103519326</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>146.464959821709</v>
       </c>
     </row>
     <row r="20">
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>23.10998325717181</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018854</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.3391137331268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428112</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261713</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652484</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587.423735613027</v>
+        <v>866.2215162936473</v>
       </c>
       <c r="C2" t="n">
-        <v>1587.423735613027</v>
+        <v>866.2215162936473</v>
       </c>
       <c r="D2" t="n">
-        <v>1587.423735613027</v>
+        <v>507.9558176868968</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.635483014783</v>
+        <v>122.1675650886527</v>
       </c>
       <c r="F2" t="n">
-        <v>790.6495782251753</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="G2" t="n">
-        <v>375.5321262850763</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="H2" t="n">
-        <v>77.48765136223363</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316237</v>
+        <v>65.42565911316241</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725623</v>
+        <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
         <v>578.7702206183958</v>
@@ -4337,43 +4337,43 @@
         <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064183</v>
+        <v>1548.631370064184</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746181</v>
+        <v>2087.540198746182</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767917</v>
+        <v>2583.081262767918</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303807</v>
+        <v>2971.513095303808</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301004</v>
+        <v>3215.036478301005</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658118</v>
+        <v>3271.28295565812</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007348</v>
+        <v>3159.966809007351</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077314</v>
+        <v>2953.792066077317</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208343</v>
+        <v>2700.257989208345</v>
       </c>
       <c r="V2" t="n">
-        <v>2700.257989208343</v>
+        <v>2369.195101864775</v>
       </c>
       <c r="W2" t="n">
-        <v>2347.489333938229</v>
+        <v>2016.426446594661</v>
       </c>
       <c r="X2" t="n">
-        <v>1974.023575677149</v>
+        <v>1642.960688333581</v>
       </c>
       <c r="Y2" t="n">
-        <v>1974.023575677149</v>
+        <v>1252.821356357769</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>75.03392728158295</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316237</v>
+        <v>65.42565911316241</v>
       </c>
       <c r="J3" t="n">
-        <v>184.5473672621635</v>
+        <v>156.8733478056107</v>
       </c>
       <c r="K3" t="n">
-        <v>419.000857536035</v>
+        <v>391.3268380794824</v>
       </c>
       <c r="L3" t="n">
-        <v>780.5750497221807</v>
+        <v>752.9010302656283</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.871945822811</v>
+        <v>1194.197926366259</v>
       </c>
       <c r="N3" t="n">
-        <v>1689.257302559075</v>
+        <v>1661.583283102524</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632936</v>
+        <v>2066.929778176385</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>2372.923010208141</v>
       </c>
       <c r="Q3" t="n">
         <v>2555.226205362918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1727.120789531993</v>
+        <v>754.6747333346188</v>
       </c>
       <c r="C4" t="n">
-        <v>1727.120789531993</v>
+        <v>754.6747333346188</v>
       </c>
       <c r="D4" t="n">
-        <v>1577.004150119657</v>
+        <v>604.5580939222832</v>
       </c>
       <c r="E4" t="n">
-        <v>1577.004150119657</v>
+        <v>456.64500033989</v>
       </c>
       <c r="F4" t="n">
-        <v>1430.114202621747</v>
+        <v>309.7550528419796</v>
       </c>
       <c r="G4" t="n">
-        <v>1430.114202621747</v>
+        <v>309.7550528419796</v>
       </c>
       <c r="H4" t="n">
-        <v>1430.114202621747</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621747</v>
+        <v>65.42565911316241</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726846</v>
+        <v>109.1495242182618</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248737</v>
+        <v>310.8381027401526</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412497</v>
+        <v>624.456478903913</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630628</v>
+        <v>965.5122071220446</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.58155235062</v>
+        <v>1303.893008842037</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744369</v>
+        <v>1600.426152235786</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372346</v>
+        <v>1830.640801863763</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658118</v>
+        <v>1906.594412149535</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.544851141313</v>
+        <v>1815.85630763273</v>
       </c>
       <c r="S4" t="n">
-        <v>2988.507175657</v>
+        <v>1623.818632148417</v>
       </c>
       <c r="T4" t="n">
-        <v>2766.654309878985</v>
+        <v>1623.818632148417</v>
       </c>
       <c r="U4" t="n">
-        <v>2477.550341936363</v>
+        <v>1411.800265514275</v>
       </c>
       <c r="V4" t="n">
-        <v>2222.865853730476</v>
+        <v>1157.115777308389</v>
       </c>
       <c r="W4" t="n">
-        <v>1933.448683693515</v>
+        <v>1157.115777308389</v>
       </c>
       <c r="X4" t="n">
-        <v>1933.448683693515</v>
+        <v>1157.115777308389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1908.769254362232</v>
+        <v>936.3231981648586</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473096</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490654</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>371.6073797998619</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>360.5753336852625</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
         <v>66.5121164321834</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3286.671681229909</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3286.671681229909</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3033.141204503745</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>3033.141204503745</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2680.372549233631</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2306.906790972551</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4644,46 +4644,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.5934525793617</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>481.6572696514548</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1457.103040388696</v>
+        <v>1754.274337770284</v>
       </c>
       <c r="U7" t="n">
-        <v>1168.00017351434</v>
+        <v>1465.171470895927</v>
       </c>
       <c r="V7" t="n">
-        <v>1168.00017351434</v>
+        <v>1210.48698269004</v>
       </c>
       <c r="W7" t="n">
-        <v>878.5830034773791</v>
+        <v>921.0698126530797</v>
       </c>
       <c r="X7" t="n">
-        <v>650.5934525793617</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.5934525793617</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.061124352531</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C8" t="n">
-        <v>663.0986074121195</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D8" t="n">
-        <v>663.0986074121195</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="E8" t="n">
-        <v>663.0986074121195</v>
+        <v>498.0825736845405</v>
       </c>
       <c r="F8" t="n">
-        <v>252.1127026225119</v>
+        <v>491.137072935337</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0806565079125</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1761.381342756611</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1539.614727326137</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1250.51186045178</v>
+        <v>1710.290731046043</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.51186045178</v>
+        <v>1455.606242840156</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.51186045178</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327647</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048579</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048579</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224647</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>446.9048623224647</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G13" t="n">
-        <v>279.7087630373446</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9969318795428</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630045</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5279,19 +5279,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,19 +5364,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133955</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782947</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038333</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679487</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>653.747479770887</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="D19" t="n">
+        <v>484.8112968429801</v>
+      </c>
+      <c r="E19" t="n">
+        <v>484.8112968429802</v>
+      </c>
+      <c r="F19" t="n">
+        <v>484.8112968429802</v>
+      </c>
+      <c r="G19" t="n">
         <v>317.6151975578601</v>
-      </c>
-      <c r="E19" t="n">
-        <v>317.6151975578601</v>
-      </c>
-      <c r="F19" t="n">
-        <v>317.6151975578602</v>
-      </c>
-      <c r="G19" t="n">
-        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2319.876964645599</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2100.27549966854</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1811.200273012738</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1556.515784806851</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1267.09861476989</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1039.109063871873</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>835.3959446011268</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.5558870561822</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,19 +5911,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.98648192797</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835328</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835328</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711972</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908937</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.6442739835328</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,25 +6227,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908934</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270437</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6789,13 +6789,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,13 +7023,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345467</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438401</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,34 +7099,34 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,10 +7135,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7561,7 +7561,7 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>27.95355500661914</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>27.95355500661705</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780253</v>
+        <v>1.622913276780167</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>393.9960706055998</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736142</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35313945304302</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>76.31474529539645</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.1520183141251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52737017531036</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016418</v>
+        <v>46.67206947361605</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012264</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>123.7828069546815</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.2975548066626</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.26526345294987</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.24553961896801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194279</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.016076112136943e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1262056.220889731</v>
+        <v>1262056.220889732</v>
       </c>
     </row>
     <row r="9">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380011</v>
@@ -26329,13 +26329,13 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
@@ -26344,16 +26344,16 @@
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="N2" t="n">
-        <v>164208.3539728569</v>
-      </c>
       <c r="O2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081207</v>
+        <v>1313514.533081208</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074544</v>
+        <v>14479.05232074485</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125532</v>
+        <v>213977.8894125533</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.24184102258</v>
+        <v>3495.241841022434</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12350.05787405598</v>
+        <v>12350.05787405594</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26436,7 +26436,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26445,19 +26445,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>19767.83547989927</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19767.83547989927</v>
+      </c>
+      <c r="N4" t="n">
         <v>19767.8354798993</v>
       </c>
-      <c r="M4" t="n">
-        <v>19767.83547989934</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.83547989928</v>
-      </c>
       <c r="O4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031116</v>
+        <v>106866.6399031117</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1297329.518142918</v>
+        <v>-1297689.601158636</v>
       </c>
       <c r="C6" t="n">
-        <v>-49168.64989743923</v>
+        <v>-49168.64989743862</v>
       </c>
       <c r="D6" t="n">
-        <v>-34689.59757669378</v>
+        <v>-34689.59757669372</v>
       </c>
       <c r="E6" t="n">
-        <v>-276882.6479100671</v>
+        <v>-276917.3858355028</v>
       </c>
       <c r="F6" t="n">
-        <v>48529.81389728822</v>
+        <v>48495.07597185252</v>
       </c>
       <c r="G6" t="n">
-        <v>48529.81389728827</v>
+        <v>48495.07597185261</v>
       </c>
       <c r="H6" t="n">
-        <v>48529.81389728833</v>
+        <v>48495.07597185249</v>
       </c>
       <c r="I6" t="n">
-        <v>48529.81389728833</v>
+        <v>48495.07597185258</v>
       </c>
       <c r="J6" t="n">
-        <v>-165448.075515265</v>
+        <v>-165482.8134407008</v>
       </c>
       <c r="K6" t="n">
-        <v>45034.57205626568</v>
+        <v>44999.83413083016</v>
       </c>
       <c r="L6" t="n">
-        <v>21848.68464541032</v>
+        <v>21848.68464541031</v>
       </c>
       <c r="M6" t="n">
-        <v>-43778.62529646979</v>
+        <v>-43778.62529646974</v>
       </c>
       <c r="N6" t="n">
-        <v>41276.40263904221</v>
+        <v>41276.40263904197</v>
       </c>
       <c r="O6" t="n">
-        <v>41276.40263904218</v>
+        <v>41276.40263904195</v>
       </c>
       <c r="P6" t="n">
-        <v>41276.40263904203</v>
+        <v>41276.40263904209</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145296</v>
+        <v>817.8207389145301</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209503</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145296</v>
+        <v>817.8207389145301</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776297</v>
+        <v>13.5807164877624</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145296</v>
+        <v>817.8207389145301</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776297</v>
+        <v>13.5807164877624</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145296</v>
+        <v>817.8207389145301</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776297</v>
+        <v>13.5807164877624</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>3.485179306772181</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>70.64296281270749</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>32.76053465485981</v>
+        <v>48.25894106114217</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>32.11994848825736</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7849097123487</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>25.51495205287856</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.3780593335876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-9.521272659185342e-13</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436993</v>
+        <v>4.336460094436995</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215286</v>
+        <v>44.41077194215288</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907823</v>
+        <v>167.1813777907824</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402221</v>
+        <v>368.0516299402222</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377401</v>
+        <v>551.6139857377403</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528663</v>
+        <v>684.3259263528666</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573102</v>
+        <v>761.4444485573105</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006294</v>
+        <v>773.7654158006297</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365715</v>
+        <v>730.6447407365717</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551581</v>
+        <v>623.5883821551583</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231332</v>
+        <v>468.2889050231333</v>
       </c>
       <c r="R2" t="n">
-        <v>272.400161407178</v>
+        <v>272.4001614071781</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198308</v>
+        <v>98.81708440198312</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339795</v>
+        <v>18.98285406339796</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549593</v>
+        <v>0.3469168075549595</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528248</v>
+        <v>2.320210700528249</v>
       </c>
       <c r="H3" t="n">
-        <v>22.4083507129965</v>
+        <v>22.40835071299651</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467871</v>
+        <v>79.88444736467875</v>
       </c>
       <c r="J3" t="n">
         <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217039</v>
+        <v>374.6631463217041</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335566</v>
+        <v>503.7808365335569</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277054</v>
+        <v>587.8884744277057</v>
       </c>
       <c r="N3" t="n">
-        <v>603.448133029055</v>
+        <v>603.4481330290554</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594554</v>
+        <v>552.0371485594557</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736792</v>
+        <v>443.0584801736794</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498865</v>
+        <v>296.1728606498866</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871837</v>
+        <v>144.0565906871838</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604001</v>
+        <v>43.09689612604003</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164293</v>
+        <v>9.352077341164296</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242269</v>
+        <v>0.152645440824227</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393972</v>
+        <v>1.945186710393973</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695733</v>
+        <v>17.29447820695734</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621147</v>
+        <v>58.4970694362115</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248538</v>
+        <v>137.5247004248539</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166814</v>
+        <v>225.9953287166815</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889366</v>
+        <v>289.1962132889367</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120296</v>
+        <v>304.9168586120297</v>
       </c>
       <c r="N4" t="n">
-        <v>297.666617236925</v>
+        <v>297.6666172369252</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564135</v>
+        <v>274.9432997564136</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643763</v>
+        <v>235.2614908643764</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221716</v>
+        <v>162.8828617221717</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553258</v>
+        <v>87.46266790553261</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750221</v>
+        <v>33.89929930750223</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046969</v>
+        <v>8.311252308046972</v>
       </c>
       <c r="U4" t="n">
         <v>0.1061010932942168</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135358</v>
+        <v>187.0057254135359</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927596</v>
+        <v>331.5241346927598</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828791</v>
+        <v>448.5595113828794</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300375</v>
+        <v>531.0982153300378</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040384</v>
+        <v>544.3523522040389</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148848</v>
+        <v>500.546529314885</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998886</v>
+        <v>392.3553863998888</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486837</v>
+        <v>245.9832151486839</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304589</v>
+        <v>56.81462359304601</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120.3249577262638</v>
+        <v>92.37140271964475</v>
       </c>
       <c r="K3" t="n">
-        <v>236.821707347345</v>
+        <v>236.8217073473451</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536824</v>
+        <v>365.2264567536827</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056871</v>
+        <v>445.7544405056873</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457218</v>
+        <v>472.1064209457221</v>
       </c>
       <c r="O3" t="n">
-        <v>409.440904115011</v>
+        <v>409.4409041150112</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593489</v>
+        <v>309.0840727593491</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.191086563865</v>
+        <v>184.1446415704822</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818104</v>
+        <v>44.1655203081811</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907986</v>
+        <v>203.7258368907987</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492527</v>
+        <v>316.7862385492529</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738702</v>
+        <v>344.5007355738703</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161536</v>
+        <v>341.7987896161537</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704532</v>
+        <v>299.5284276704533</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292698</v>
+        <v>232.5400501292699</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047723</v>
+        <v>76.72081847047731</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295234</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
